--- a/data/trans_orig/P1002-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1002-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>19921</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12717</v>
+        <v>12772</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29323</v>
+        <v>30642</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07296764829444326</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04657976868136533</v>
+        <v>0.04678274711273263</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1074058321318102</v>
+        <v>0.1122373029101784</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -765,19 +765,19 @@
         <v>20851</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13528</v>
+        <v>12897</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30309</v>
+        <v>31015</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07993946815874983</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05186288623205933</v>
+        <v>0.04944358639791943</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1161967270049</v>
+        <v>0.1189066625142653</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -786,19 +786,19 @@
         <v>40772</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29108</v>
+        <v>29703</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>53495</v>
+        <v>54683</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07637407873764973</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05452434958175438</v>
+        <v>0.05563851227830317</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.100206641310945</v>
+        <v>0.1024308622404066</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>253089</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>243687</v>
+        <v>242368</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>260293</v>
+        <v>260238</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9270323517055568</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8925941678681896</v>
+        <v>0.8877626970898216</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9534202313186344</v>
+        <v>0.9532172528872673</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>226</v>
@@ -836,19 +836,19 @@
         <v>239987</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>230529</v>
+        <v>229823</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>247310</v>
+        <v>247941</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9200605318412501</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8838032729951</v>
+        <v>0.8810933374857348</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9481371137679406</v>
+        <v>0.9505564136020807</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>477</v>
@@ -857,19 +857,19 @@
         <v>493076</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>480353</v>
+        <v>479165</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>504740</v>
+        <v>504145</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9236259212623503</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8997933586890552</v>
+        <v>0.8975691377595935</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9454756504182457</v>
+        <v>0.9443614877216973</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>35845</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25896</v>
+        <v>24204</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50464</v>
+        <v>48610</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07269781492173855</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0525193937934921</v>
+        <v>0.04908754806400616</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1023461348749227</v>
+        <v>0.09858567623471957</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>73</v>
@@ -982,19 +982,19 @@
         <v>73594</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>59181</v>
+        <v>57852</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>92493</v>
+        <v>91763</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1460355062121684</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1174339516430228</v>
+        <v>0.1147981505762166</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1835363479617146</v>
+        <v>0.182087409040917</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>106</v>
@@ -1003,19 +1003,19 @@
         <v>109440</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>89073</v>
+        <v>89875</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>129241</v>
+        <v>132265</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.109766585884088</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0893389202527287</v>
+        <v>0.09014319590394745</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1296268925970232</v>
+        <v>0.1326596276780239</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>457230</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>442611</v>
+        <v>444465</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>467179</v>
+        <v>468871</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9273021850782615</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8976538651250773</v>
+        <v>0.9014143237652797</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9474806062065078</v>
+        <v>0.9509124519359935</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>426</v>
@@ -1053,19 +1053,19 @@
         <v>430355</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>411456</v>
+        <v>412186</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>444768</v>
+        <v>446097</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8539644937878316</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8164636520382857</v>
+        <v>0.8179125909590828</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8825660483569773</v>
+        <v>0.8852018494237831</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>858</v>
@@ -1074,19 +1074,19 @@
         <v>887584</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>867783</v>
+        <v>864759</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>907951</v>
+        <v>907149</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8902334141159121</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.870373107402977</v>
+        <v>0.8673403723219761</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9106610797472713</v>
+        <v>0.9098568040960526</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>3754</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>938</v>
+        <v>948</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10674</v>
+        <v>11559</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01177491882845891</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002942160634815904</v>
+        <v>0.002974233598638564</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03347803989861775</v>
+        <v>0.03625235968127453</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1199,19 +1199,19 @@
         <v>11402</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6094</v>
+        <v>6362</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18615</v>
+        <v>20853</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03399316251273223</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0181673711059618</v>
+        <v>0.01896670078828957</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05549750150744856</v>
+        <v>0.06217197736442382</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1220,19 +1220,19 @@
         <v>15156</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8250</v>
+        <v>8550</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24651</v>
+        <v>24722</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02316532839060799</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01260948047320924</v>
+        <v>0.01306748162463388</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03767787733878158</v>
+        <v>0.03778647024420719</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>315092</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>308172</v>
+        <v>307287</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317908</v>
+        <v>317898</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9882250811715411</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9665219601013824</v>
+        <v>0.9637476403187258</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9970578393651841</v>
+        <v>0.9970257664013614</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>324</v>
@@ -1270,19 +1270,19 @@
         <v>324010</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>316797</v>
+        <v>314559</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>329318</v>
+        <v>329050</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9660068374872678</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9445024984925515</v>
+        <v>0.9378280226355761</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9818326288940382</v>
+        <v>0.9810332992117102</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>631</v>
@@ -1291,19 +1291,19 @@
         <v>639102</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>629607</v>
+        <v>629536</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>646008</v>
+        <v>645708</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.976834671609392</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9623221226612184</v>
+        <v>0.9622135297557933</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9873905195267907</v>
+        <v>0.9869325183753663</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>6122</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2598</v>
+        <v>1889</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12592</v>
+        <v>13240</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01706935107693587</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007242895801309847</v>
+        <v>0.005265407087100433</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0351065914477905</v>
+        <v>0.03691381754432373</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -1416,19 +1416,19 @@
         <v>25708</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16967</v>
+        <v>17963</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36452</v>
+        <v>38296</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06920980528926671</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04567764409022861</v>
+        <v>0.048359152356303</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09813201355718598</v>
+        <v>0.1030973285023417</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -1437,19 +1437,19 @@
         <v>31831</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>22036</v>
+        <v>22387</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>44208</v>
+        <v>45293</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04359607956846536</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03018132924941078</v>
+        <v>0.0306612033787642</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06054840451435541</v>
+        <v>0.0620342855084102</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>352549</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>346079</v>
+        <v>345431</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>356073</v>
+        <v>356782</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9829306489230641</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9648934085522095</v>
+        <v>0.9630861824556762</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9927571041986901</v>
+        <v>0.9947345929128996</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>359</v>
@@ -1487,19 +1487,19 @@
         <v>345748</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>335004</v>
+        <v>333160</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>354489</v>
+        <v>353493</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9307901947107333</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9018679864428143</v>
+        <v>0.8969026714976583</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9543223559097715</v>
+        <v>0.9516408476436969</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>715</v>
@@ -1508,19 +1508,19 @@
         <v>698296</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>685919</v>
+        <v>684834</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>708091</v>
+        <v>707740</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9564039204315347</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9394515954856447</v>
+        <v>0.9379657144915901</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9698186707505893</v>
+        <v>0.9693387966212358</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>12569</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7203</v>
+        <v>6860</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20060</v>
+        <v>20108</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06182430591109634</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03543012850534014</v>
+        <v>0.03374041261199255</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09866852580922209</v>
+        <v>0.09890609346455088</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1633,19 +1633,19 @@
         <v>12205</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6871</v>
+        <v>6653</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21150</v>
+        <v>20491</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05876984271632044</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03308482266126949</v>
+        <v>0.03203511557960437</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1018453059801149</v>
+        <v>0.09867049085375224</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -1654,19 +1654,19 @@
         <v>24774</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17052</v>
+        <v>16504</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34568</v>
+        <v>36328</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06028087225137375</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04149133441844734</v>
+        <v>0.04015810487447487</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08411243327543469</v>
+        <v>0.08839469966348498</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>190739</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>183248</v>
+        <v>183200</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>196105</v>
+        <v>196448</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9381756940889037</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.901331474190778</v>
+        <v>0.9010939065354491</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9645698714946599</v>
+        <v>0.9662595873880065</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>186</v>
@@ -1704,19 +1704,19 @@
         <v>195463</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>186518</v>
+        <v>187177</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>200797</v>
+        <v>201015</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9412301572836795</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8981546940198851</v>
+        <v>0.9013295091462478</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9669151773387304</v>
+        <v>0.9679648844203955</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>378</v>
@@ -1725,19 +1725,19 @@
         <v>386202</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>376408</v>
+        <v>374648</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>393924</v>
+        <v>394472</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9397191277486262</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9158875667245655</v>
+        <v>0.9116053003365151</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9585086655815529</v>
+        <v>0.9598418951255251</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>3617</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>883</v>
+        <v>949</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8895</v>
+        <v>8254</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01335606726343498</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003260254543174067</v>
+        <v>0.003504981736826094</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0328444057055489</v>
+        <v>0.03047965524159169</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -1850,19 +1850,19 @@
         <v>10549</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5203</v>
+        <v>5298</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18507</v>
+        <v>18574</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03792655179493391</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01870774719956345</v>
+        <v>0.01904740265771261</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06653664171778047</v>
+        <v>0.06677840643162716</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -1871,19 +1871,19 @@
         <v>14166</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8232</v>
+        <v>8122</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24228</v>
+        <v>23206</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02580541702755531</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01499493242938096</v>
+        <v>0.01479469117271504</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04413510456337544</v>
+        <v>0.04227392202838524</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>267194</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>261916</v>
+        <v>262557</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>269928</v>
+        <v>269862</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.986643932736565</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9671555942944512</v>
+        <v>0.9695203447584083</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9967397454568259</v>
+        <v>0.9964950182631739</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>260</v>
@@ -1921,19 +1921,19 @@
         <v>267595</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>259637</v>
+        <v>259570</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>272941</v>
+        <v>272846</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9620734482050661</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.933463358282219</v>
+        <v>0.9332215935683724</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9812922528004365</v>
+        <v>0.9809525973422873</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>522</v>
@@ -1942,19 +1942,19 @@
         <v>534789</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>524727</v>
+        <v>525749</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>540723</v>
+        <v>540833</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9741945829724447</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9558648954366245</v>
+        <v>0.9577260779716147</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.985005067570619</v>
+        <v>0.985205308827285</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>31587</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22329</v>
+        <v>21494</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45660</v>
+        <v>43859</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05135837834438339</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03630546542570677</v>
+        <v>0.03494877406784483</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07423996969186893</v>
+        <v>0.07131171105241871</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>60</v>
@@ -2067,19 +2067,19 @@
         <v>60090</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>47620</v>
+        <v>46506</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>77454</v>
+        <v>75033</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09415284692123727</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07461449613507543</v>
+        <v>0.07286862467506455</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1213599295478009</v>
+        <v>0.1175655977599403</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>91</v>
@@ -2088,19 +2088,19 @@
         <v>91677</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>72511</v>
+        <v>73579</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>109641</v>
+        <v>109864</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07315158068542958</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0578583326680284</v>
+        <v>0.05871034465902262</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08748537087572217</v>
+        <v>0.08766335343613921</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>583440</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>569367</v>
+        <v>571168</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>592698</v>
+        <v>593533</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9486416216556166</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9257600303081311</v>
+        <v>0.9286882889475813</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9636945345742932</v>
+        <v>0.9650512259321552</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>561</v>
@@ -2138,19 +2138,19 @@
         <v>578129</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>560765</v>
+        <v>563186</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>590599</v>
+        <v>591713</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9058471530787627</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8786400704521989</v>
+        <v>0.8824344022400594</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9253855038649246</v>
+        <v>0.9271313753249352</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1128</v>
@@ -2159,19 +2159,19 @@
         <v>1161569</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1143605</v>
+        <v>1143382</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1180735</v>
+        <v>1179667</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9268484193145704</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9125146291242777</v>
+        <v>0.9123366465638607</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9421416673319716</v>
+        <v>0.9412896553409773</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>57118</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>43126</v>
+        <v>44560</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>72379</v>
+        <v>75659</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07679233206774003</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0579816677417242</v>
+        <v>0.05990880234858381</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09731050942418916</v>
+        <v>0.1017197850021704</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>67</v>
@@ -2284,19 +2284,19 @@
         <v>72410</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>56341</v>
+        <v>57685</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>91185</v>
+        <v>90653</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09241713860289914</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0719078348897576</v>
+        <v>0.07362379342467808</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1163793728210422</v>
+        <v>0.1157007094917712</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>124</v>
@@ -2305,19 +2305,19 @@
         <v>129528</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>109142</v>
+        <v>109342</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>153860</v>
+        <v>152677</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08480788851658315</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0714606548151283</v>
+        <v>0.07159144126268997</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1007392539707846</v>
+        <v>0.09996522299286398</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>686677</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>671416</v>
+        <v>668136</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>700669</v>
+        <v>699235</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9232076679322599</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9026894905758106</v>
+        <v>0.8982802149978297</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9420183322582758</v>
+        <v>0.9400911976514164</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>678</v>
@@ -2355,19 +2355,19 @@
         <v>711101</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>692326</v>
+        <v>692858</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>727170</v>
+        <v>725826</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9075828613971009</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8836206271789577</v>
+        <v>0.8842992905082289</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9280921651102424</v>
+        <v>0.9263762065753222</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1357</v>
@@ -2376,19 +2376,19 @@
         <v>1397778</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1373446</v>
+        <v>1374629</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1418164</v>
+        <v>1417964</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9151921114834168</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8992607460292154</v>
+        <v>0.9000347770071361</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9285393451848719</v>
+        <v>0.9284085587373102</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>170534</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>149469</v>
+        <v>146978</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>198657</v>
+        <v>198701</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0520469061498945</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04561791769455013</v>
+        <v>0.04485752845310029</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06062996508829491</v>
+        <v>0.0606433966155803</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>277</v>
@@ -2501,19 +2501,19 @@
         <v>286809</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>255958</v>
+        <v>256009</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>319087</v>
+        <v>323660</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08487502925932525</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07574534866859473</v>
+        <v>0.07576039753044053</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09442693102527638</v>
+        <v>0.09578016608480538</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>445</v>
@@ -2522,19 +2522,19 @@
         <v>457343</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>416795</v>
+        <v>416963</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>500223</v>
+        <v>496096</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06871412794003992</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06262181069777648</v>
+        <v>0.06264707577693479</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0751566894242351</v>
+        <v>0.07453658112097733</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3106009</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3077886</v>
+        <v>3077842</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3127074</v>
+        <v>3129565</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9479530938501055</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9393700349117051</v>
+        <v>0.9393566033844197</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9543820823054499</v>
+        <v>0.9551424715468998</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3020</v>
@@ -2572,19 +2572,19 @@
         <v>3092388</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3060110</v>
+        <v>3055537</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3123239</v>
+        <v>3123188</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9151249707406748</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9055730689747237</v>
+        <v>0.9042198339151947</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9242546513314053</v>
+        <v>0.9242396024695594</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6066</v>
@@ -2593,19 +2593,19 @@
         <v>6198398</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6155518</v>
+        <v>6159645</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6238946</v>
+        <v>6238778</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9312858720599601</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9248433105757647</v>
+        <v>0.9254634188790227</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9373781893022235</v>
+        <v>0.9373529242230653</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>26437</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17353</v>
+        <v>17621</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36983</v>
+        <v>38199</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08969622214939482</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05887459989610881</v>
+        <v>0.05978640369379137</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1254781488706027</v>
+        <v>0.1296035473178626</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>52</v>
@@ -2962,19 +2962,19 @@
         <v>56526</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43707</v>
+        <v>42317</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>71600</v>
+        <v>71905</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1967855011163218</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1521590050480416</v>
+        <v>0.1473191261382035</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2492650102206964</v>
+        <v>0.2503258703192119</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>78</v>
@@ -2983,19 +2983,19 @@
         <v>82963</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>66673</v>
+        <v>65520</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>100278</v>
+        <v>100820</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1425514744960744</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1145614868079696</v>
+        <v>0.1125798157656732</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1723036039549341</v>
+        <v>0.1732345227978378</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>268301</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>257755</v>
+        <v>256539</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>277385</v>
+        <v>277117</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9103037778506052</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8745218511293974</v>
+        <v>0.8703964526821377</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9411254001038912</v>
+        <v>0.9402135963062087</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>204</v>
@@ -3033,19 +3033,19 @@
         <v>230719</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>215645</v>
+        <v>215340</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>243538</v>
+        <v>244928</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8032144988836781</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7507349897793036</v>
+        <v>0.7496741296807881</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8478409949519584</v>
+        <v>0.8526808738617965</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>460</v>
@@ -3054,19 +3054,19 @@
         <v>499020</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>481705</v>
+        <v>481163</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>515310</v>
+        <v>516463</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8574485255039256</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8276963960450658</v>
+        <v>0.8267654772021623</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8854385131920304</v>
+        <v>0.8874201842343271</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>39572</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28649</v>
+        <v>27746</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55425</v>
+        <v>54748</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07827857168480436</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05667161973879638</v>
+        <v>0.05488465000323069</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1096376559628211</v>
+        <v>0.1082989437306272</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>71</v>
@@ -3179,19 +3179,19 @@
         <v>77222</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>62087</v>
+        <v>61187</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>95993</v>
+        <v>95232</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1477329985045819</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.118779050469688</v>
+        <v>0.1170576055383039</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1836455235909515</v>
+        <v>0.182188251219245</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>104</v>
@@ -3200,19 +3200,19 @@
         <v>116793</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>98131</v>
+        <v>97386</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>140865</v>
+        <v>140867</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1135861125347443</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09543628839464065</v>
+        <v>0.09471144409253096</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1369970411621615</v>
+        <v>0.1369986734064478</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>465955</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>450102</v>
+        <v>450779</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>476878</v>
+        <v>477781</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9217214283151957</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8903623440371788</v>
+        <v>0.8917010562693725</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.943328380261204</v>
+        <v>0.9451153499967694</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>408</v>
@@ -3250,19 +3250,19 @@
         <v>445488</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>426717</v>
+        <v>427478</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>460623</v>
+        <v>461523</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8522670014954181</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8163544764090485</v>
+        <v>0.8178117487807549</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8812209495303119</v>
+        <v>0.8829423944616959</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>847</v>
@@ -3271,19 +3271,19 @@
         <v>911444</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>887372</v>
+        <v>887370</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>930106</v>
+        <v>930851</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8864138874652557</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8630029588378385</v>
+        <v>0.8630013265935522</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9045637116053593</v>
+        <v>0.9052885559074689</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>17727</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10752</v>
+        <v>10929</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26754</v>
+        <v>27306</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05470372621096076</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03318146518069385</v>
+        <v>0.03372545433639919</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0825621901255086</v>
+        <v>0.08426670289499665</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -3396,19 +3396,19 @@
         <v>37911</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27527</v>
+        <v>27246</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50898</v>
+        <v>51462</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1111695673263274</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08072046259789835</v>
+        <v>0.07989647104171117</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1492525583732655</v>
+        <v>0.1509075664748628</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>52</v>
@@ -3417,19 +3417,19 @@
         <v>55638</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>41264</v>
+        <v>42836</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>72737</v>
+        <v>72029</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0836572155475445</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06204536812879238</v>
+        <v>0.06440904812578348</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1093683059632033</v>
+        <v>0.1083029077450967</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>306319</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>297292</v>
+        <v>296740</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>313294</v>
+        <v>313117</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9452962737890392</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9174378098744913</v>
+        <v>0.9157332971050034</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9668185348193061</v>
+        <v>0.9662745456636008</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>282</v>
@@ -3467,19 +3467,19 @@
         <v>303109</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>290122</v>
+        <v>289558</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>313493</v>
+        <v>313774</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8888304326736726</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8507474416267345</v>
+        <v>0.8490924335251372</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9192795374021017</v>
+        <v>0.9201035289582888</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>584</v>
@@ -3488,19 +3488,19 @@
         <v>609428</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>592329</v>
+        <v>593037</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>623802</v>
+        <v>622230</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9163427844524555</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8906316940367965</v>
+        <v>0.8916970922549033</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9379546318712073</v>
+        <v>0.9355909518742165</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>23329</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14759</v>
+        <v>15295</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33987</v>
+        <v>35515</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06237944452342745</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03946439915820217</v>
+        <v>0.04089703650793237</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09087829201643925</v>
+        <v>0.09496445923499185</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>78</v>
@@ -3613,19 +3613,19 @@
         <v>80328</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>64502</v>
+        <v>65440</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>97347</v>
+        <v>96144</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2065235362731548</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1658359100181464</v>
+        <v>0.1682486527393172</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.250279977157659</v>
+        <v>0.247186695155123</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>100</v>
@@ -3634,19 +3634,19 @@
         <v>103656</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>85995</v>
+        <v>84943</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>123032</v>
+        <v>122048</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1358655565333828</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1127164948986763</v>
+        <v>0.1113379737166741</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.161261493983363</v>
+        <v>0.1599726805125007</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>350653</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>339995</v>
+        <v>338467</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>359223</v>
+        <v>358687</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9376205554765725</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9091217079835608</v>
+        <v>0.9050355407650081</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9605356008417979</v>
+        <v>0.9591029634920677</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>293</v>
@@ -3684,19 +3684,19 @@
         <v>308623</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>291604</v>
+        <v>292807</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>324449</v>
+        <v>323511</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7934764637268452</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.749720022842341</v>
+        <v>0.752813304844877</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8341640899818537</v>
+        <v>0.8317513472606827</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>615</v>
@@ -3705,19 +3705,19 @@
         <v>659277</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>639901</v>
+        <v>640885</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>676938</v>
+        <v>677990</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8641344434666173</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8387385060166366</v>
+        <v>0.8400273194874994</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8872835051013233</v>
+        <v>0.888662026283326</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>9241</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4265</v>
+        <v>4301</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17581</v>
+        <v>17135</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04346302947305044</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02005725839549097</v>
+        <v>0.0202292688603519</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08268802041912922</v>
+        <v>0.08058990429986054</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -3830,19 +3830,19 @@
         <v>37690</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27605</v>
+        <v>27997</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51918</v>
+        <v>49345</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1716383140218962</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1257097025418697</v>
+        <v>0.1274966358880375</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.236430514416039</v>
+        <v>0.2247144713241333</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -3851,19 +3851,19 @@
         <v>46931</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>34868</v>
+        <v>35406</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60256</v>
+        <v>61867</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.108584617283129</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08067425116398033</v>
+        <v>0.08191822532249833</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1394136814872081</v>
+        <v>0.1431410616349156</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>203377</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>195037</v>
+        <v>195483</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>208353</v>
+        <v>208317</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9565369705269495</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9173119795808717</v>
+        <v>0.9194100957001394</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9799427416045091</v>
+        <v>0.9797707311396481</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>176</v>
@@ -3901,19 +3901,19 @@
         <v>181901</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>167673</v>
+        <v>170246</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>191986</v>
+        <v>191594</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8283616859781038</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7635694855839608</v>
+        <v>0.7752855286758668</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.87429029745813</v>
+        <v>0.8725033641119624</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>363</v>
@@ -3922,19 +3922,19 @@
         <v>385278</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>371953</v>
+        <v>370342</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>397341</v>
+        <v>396803</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8914153827168709</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8605863185127919</v>
+        <v>0.8568589383650844</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9193257488360197</v>
+        <v>0.918081774677502</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>19514</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12052</v>
+        <v>12508</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30062</v>
+        <v>29886</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0714979036933872</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04415807412807136</v>
+        <v>0.04582882935545693</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.110146773124995</v>
+        <v>0.109501346301984</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -4047,19 +4047,19 @@
         <v>29579</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19497</v>
+        <v>20188</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40536</v>
+        <v>40874</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1056279459371219</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06962472525826488</v>
+        <v>0.07209256826274714</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1447538056647674</v>
+        <v>0.145962078395323</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>48</v>
@@ -4068,19 +4068,19 @@
         <v>49093</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38161</v>
+        <v>37725</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>63792</v>
+        <v>62396</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08878215613490636</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06901320009189983</v>
+        <v>0.06822326797547502</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1153656890375854</v>
+        <v>0.1128403625710748</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>253413</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>242865</v>
+        <v>243041</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260875</v>
+        <v>260419</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9285020963066128</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8898532268750051</v>
+        <v>0.8904986536980157</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9558419258719287</v>
+        <v>0.9541711706445426</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>240</v>
@@ -4118,19 +4118,19 @@
         <v>250452</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>239495</v>
+        <v>239157</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>260534</v>
+        <v>259843</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8943720540628781</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8552461943352326</v>
+        <v>0.8540379216046773</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9303752747417352</v>
+        <v>0.9279074317372529</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>481</v>
@@ -4139,19 +4139,19 @@
         <v>503865</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>489166</v>
+        <v>490562</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>514797</v>
+        <v>515233</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9112178438650936</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8846343109624147</v>
+        <v>0.8871596374289256</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9309867999081006</v>
+        <v>0.931776732024525</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>27908</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18413</v>
+        <v>18756</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42120</v>
+        <v>40005</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04210674582048365</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02778118724515815</v>
+        <v>0.02829882181219865</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06355038741419435</v>
+        <v>0.06035795587685956</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>47</v>
@@ -4264,19 +4264,19 @@
         <v>52013</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>38535</v>
+        <v>38415</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>66498</v>
+        <v>67335</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0750648924401399</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0556128683201574</v>
+        <v>0.05544073698712709</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09596967836686489</v>
+        <v>0.09717806980516809</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>73</v>
@@ -4285,19 +4285,19 @@
         <v>79921</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>63948</v>
+        <v>64459</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>100815</v>
+        <v>98889</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05895193807367594</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04716958737206123</v>
+        <v>0.04754645182430996</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07436392313308172</v>
+        <v>0.07294303475116928</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>634880</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>620668</v>
+        <v>622783</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>644375</v>
+        <v>644032</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9578932541795163</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9364496125858057</v>
+        <v>0.9396420441231403</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.972218812754842</v>
+        <v>0.9717011781878013</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>588</v>
@@ -4335,19 +4335,19 @@
         <v>640895</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>626410</v>
+        <v>625573</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>654373</v>
+        <v>654493</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9249351075598601</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9040303216331351</v>
+        <v>0.9028219301948319</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9443871316798427</v>
+        <v>0.944559263012873</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1180</v>
@@ -4356,19 +4356,19 @@
         <v>1275775</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1254881</v>
+        <v>1256807</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1291748</v>
+        <v>1291237</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9410480619263241</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9256360768669181</v>
+        <v>0.9270569652488307</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9528304126279387</v>
+        <v>0.9524535481756902</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>66859</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>50279</v>
+        <v>51727</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>87681</v>
+        <v>84777</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08591900231766535</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06461293753943118</v>
+        <v>0.06647368161440448</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1126772233755159</v>
+        <v>0.1089452910371213</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>114</v>
@@ -4481,19 +4481,19 @@
         <v>124942</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>104676</v>
+        <v>104738</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>146284</v>
+        <v>147925</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1516555696972368</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1270562526925248</v>
+        <v>0.1271313560355345</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1775608974827967</v>
+        <v>0.1795521367107464</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>171</v>
@@ -4502,19 +4502,19 @@
         <v>191801</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>165986</v>
+        <v>165457</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>220693</v>
+        <v>217610</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1197247366050014</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1036109443995771</v>
+        <v>0.103280573379609</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1377598914651749</v>
+        <v>0.1358353717741904</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>711302</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>690480</v>
+        <v>693384</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>727882</v>
+        <v>726434</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9140809976823346</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8873227766244841</v>
+        <v>0.8910547089628789</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9353870624605689</v>
+        <v>0.9335263183855955</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>643</v>
@@ -4552,19 +4552,19 @@
         <v>698911</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>677569</v>
+        <v>675928</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>719177</v>
+        <v>719115</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8483444303027632</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8224391025172036</v>
+        <v>0.8204478632892536</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8729437473074754</v>
+        <v>0.8728686439644656</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1302</v>
@@ -4573,19 +4573,19 @@
         <v>1410213</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1381321</v>
+        <v>1384404</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1436028</v>
+        <v>1436557</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8802752633949985</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8622401085348251</v>
+        <v>0.8641646282258096</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8963890556004233</v>
+        <v>0.8967194266203912</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>230586</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>199314</v>
+        <v>200647</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>263489</v>
+        <v>261130</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06732842918983493</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05819748872309573</v>
+        <v>0.05858668507703232</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0769358020729087</v>
+        <v>0.07624692242660905</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>462</v>
@@ -4698,19 +4698,19 @@
         <v>496210</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>456431</v>
+        <v>447641</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>542880</v>
+        <v>538094</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1395295092315806</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1283439737729309</v>
+        <v>0.1258722863107273</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1526526451169389</v>
+        <v>0.1513068300136877</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>671</v>
@@ -4719,19 +4719,19 @@
         <v>726796</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>674521</v>
+        <v>673216</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>784978</v>
+        <v>783511</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1041090885459792</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09662109567559635</v>
+        <v>0.09643417675379984</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1124434051774719</v>
+        <v>0.1122331801093294</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3194202</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3161299</v>
+        <v>3163658</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3225474</v>
+        <v>3224141</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9326715708101651</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9230641979270913</v>
+        <v>0.923753077573391</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9418025112769044</v>
+        <v>0.9414133149229678</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2834</v>
@@ -4769,19 +4769,19 @@
         <v>3060099</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3013429</v>
+        <v>3018215</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3099878</v>
+        <v>3108668</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8604704907684194</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8473473548830608</v>
+        <v>0.8486931699863123</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8716560262270683</v>
+        <v>0.8741277136892728</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5832</v>
@@ -4790,19 +4790,19 @@
         <v>6254301</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6196119</v>
+        <v>6197586</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6306576</v>
+        <v>6307881</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8958909114540208</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8875565948225281</v>
+        <v>0.8877668198906706</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9033789043244036</v>
+        <v>0.9035658232462002</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>27399</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18194</v>
+        <v>18495</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40181</v>
+        <v>39345</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09327139394197886</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06193560722662612</v>
+        <v>0.06295930781066823</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1367809458874333</v>
+        <v>0.1339348158691971</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>53</v>
@@ -5159,19 +5159,19 @@
         <v>56515</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43679</v>
+        <v>42912</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>71224</v>
+        <v>70848</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1957554660243128</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1512929894639821</v>
+        <v>0.1486368119570864</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2467028242182635</v>
+        <v>0.245402394088716</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>78</v>
@@ -5180,19 +5180,19 @@
         <v>83915</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>69003</v>
+        <v>68020</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>105313</v>
+        <v>102615</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1440684543831041</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1184675675063152</v>
+        <v>0.1167789491277816</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1808052652578651</v>
+        <v>0.1761747681718743</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>266362</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>253580</v>
+        <v>254416</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>275567</v>
+        <v>275266</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9067286060580211</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8632190541125669</v>
+        <v>0.8660651841308029</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9380643927733741</v>
+        <v>0.9370406921893319</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>224</v>
@@ -5230,19 +5230,19 @@
         <v>232188</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>217479</v>
+        <v>217855</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>245024</v>
+        <v>245791</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8042445339756872</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7532971757817365</v>
+        <v>0.7545976059112834</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8487070105360178</v>
+        <v>0.8513631880429134</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>465</v>
@@ -5251,19 +5251,19 @@
         <v>498549</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>477151</v>
+        <v>479849</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>513461</v>
+        <v>514444</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8559315456168959</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.819194734742135</v>
+        <v>0.8238252318281256</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8815324324936848</v>
+        <v>0.8832210508722182</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>13486</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7319</v>
+        <v>7206</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21712</v>
+        <v>21874</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02683282443400241</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01456212996428043</v>
+        <v>0.01433866761441749</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04320059953989939</v>
+        <v>0.04352357508263366</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -5376,19 +5376,19 @@
         <v>42155</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31226</v>
+        <v>30674</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56600</v>
+        <v>57484</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08058965128371504</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05969572218735449</v>
+        <v>0.05864067492800339</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1082047462574679</v>
+        <v>0.1098949802093944</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -5397,19 +5397,19 @@
         <v>55641</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41046</v>
+        <v>42515</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>72218</v>
+        <v>71339</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05424868692233447</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0400187834559104</v>
+        <v>0.04145159813777515</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07041174288828089</v>
+        <v>0.06955439867214142</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>489089</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>480863</v>
+        <v>480701</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>495256</v>
+        <v>495369</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9731671755659976</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9567994004601006</v>
+        <v>0.9564764249173663</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9854378700357196</v>
+        <v>0.9856613323855825</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>446</v>
@@ -5447,19 +5447,19 @@
         <v>480929</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>466484</v>
+        <v>465600</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>491858</v>
+        <v>492410</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.919410348716285</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8917952537425321</v>
+        <v>0.8901050197906055</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9403042778126456</v>
+        <v>0.9413593250719967</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>908</v>
@@ -5468,19 +5468,19 @@
         <v>970018</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>953441</v>
+        <v>954320</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>984613</v>
+        <v>983144</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9457513130776656</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.929588257111718</v>
+        <v>0.9304456013278586</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9599812165440894</v>
+        <v>0.9585484018622248</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>6715</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2852</v>
+        <v>2799</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13486</v>
+        <v>12953</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02107979030506172</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008953510588318319</v>
+        <v>0.00878530879677481</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04233361439637185</v>
+        <v>0.04066057764544052</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -5593,19 +5593,19 @@
         <v>16514</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8617</v>
+        <v>9926</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25293</v>
+        <v>26874</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04910236030824539</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02562349521348545</v>
+        <v>0.02951327185157472</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07520723186424634</v>
+        <v>0.07990815618637263</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -5614,19 +5614,19 @@
         <v>23229</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14976</v>
+        <v>15014</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34046</v>
+        <v>35057</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03547071521109695</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0228689154978797</v>
+        <v>0.02292610181137825</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05198910904974146</v>
+        <v>0.05353305925017877</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>311850</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>305079</v>
+        <v>305612</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>315713</v>
+        <v>315766</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9789202096949383</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.957666385603628</v>
+        <v>0.9593394223545592</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9910464894116817</v>
+        <v>0.9912146912032251</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>317</v>
@@ -5664,19 +5664,19 @@
         <v>319795</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>311016</v>
+        <v>309435</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>327692</v>
+        <v>326383</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9508976396917546</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9247927681357536</v>
+        <v>0.9200918438136262</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9743765047865143</v>
+        <v>0.970486728148425</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>645</v>
@@ -5685,19 +5685,19 @@
         <v>631645</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>620828</v>
+        <v>619817</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>639898</v>
+        <v>639860</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9645292847889031</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9480108909502586</v>
+        <v>0.9464669407498213</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9771310845021204</v>
+        <v>0.9770738981886218</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>32335</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23429</v>
+        <v>22870</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44874</v>
+        <v>44133</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08740000969933108</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06332758813438231</v>
+        <v>0.0618161299492762</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1212924958512232</v>
+        <v>0.1192897363781051</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>67</v>
@@ -5810,19 +5810,19 @@
         <v>72339</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>58199</v>
+        <v>57851</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>88553</v>
+        <v>89322</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1867860346186822</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1502762736491081</v>
+        <v>0.1493762114041576</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2286517680244299</v>
+        <v>0.2306378527253414</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>99</v>
@@ -5831,19 +5831,19 @@
         <v>104674</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>85107</v>
+        <v>86192</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>124092</v>
+        <v>124743</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1382295514769583</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1123906475375721</v>
+        <v>0.1138230277978155</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1638730336750301</v>
+        <v>0.1647318802093092</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>337629</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>325090</v>
+        <v>325831</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>346535</v>
+        <v>347094</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.912599990300669</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8787075041487769</v>
+        <v>0.880710263621895</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9366724118656178</v>
+        <v>0.9381838700507238</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>291</v>
@@ -5881,19 +5881,19 @@
         <v>314944</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>298730</v>
+        <v>297961</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>329084</v>
+        <v>329432</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8132139653813178</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7713482319755697</v>
+        <v>0.7693621472746591</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8497237263508917</v>
+        <v>0.8506237885958425</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>613</v>
@@ -5902,19 +5902,19 @@
         <v>652573</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>633155</v>
+        <v>632504</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>672140</v>
+        <v>671055</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8617704485230417</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8361269663249699</v>
+        <v>0.8352681197906907</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8876093524624279</v>
+        <v>0.8861769722021845</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>8832</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4508</v>
+        <v>3946</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15940</v>
+        <v>15969</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04181298032989805</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02134292646729656</v>
+        <v>0.01868091323090502</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07546792922860307</v>
+        <v>0.07560306762948005</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -6027,19 +6027,19 @@
         <v>17531</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10374</v>
+        <v>10425</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27106</v>
+        <v>27076</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08020166205196412</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04746158998350009</v>
+        <v>0.04769184600740838</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1240077351182723</v>
+        <v>0.123866281413934</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -6048,19 +6048,19 @@
         <v>26363</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17345</v>
+        <v>17902</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37012</v>
+        <v>37672</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06133627167295284</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04035529021471356</v>
+        <v>0.04165024092206059</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08611305542045669</v>
+        <v>0.08764807388017477</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>202389</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>195281</v>
+        <v>195252</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>206713</v>
+        <v>207275</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.958187019670102</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9245320707713969</v>
+        <v>0.9243969323705202</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9786570735327053</v>
+        <v>0.981319086769095</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>206</v>
@@ -6098,19 +6098,19 @@
         <v>201056</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>191481</v>
+        <v>191511</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>208213</v>
+        <v>208162</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9197983379480359</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8759922648817274</v>
+        <v>0.876133718586066</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9525384100164999</v>
+        <v>0.9523081539925917</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>409</v>
@@ -6119,19 +6119,19 @@
         <v>403445</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>392796</v>
+        <v>392136</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>412463</v>
+        <v>411906</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9386637283270471</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9138869445795437</v>
+        <v>0.9123519261198252</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9596447097852865</v>
+        <v>0.9583497590779394</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>21073</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13593</v>
+        <v>13808</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30593</v>
+        <v>30878</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08008891858952226</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05166167867404722</v>
+        <v>0.05247594602083797</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1162698018332716</v>
+        <v>0.1173505505801646</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>30</v>
@@ -6244,19 +6244,19 @@
         <v>34110</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>23136</v>
+        <v>23821</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>46022</v>
+        <v>46657</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1248915564734127</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08471189186092046</v>
+        <v>0.08721969229732127</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1685072670920075</v>
+        <v>0.1708318797958797</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>51</v>
@@ -6265,19 +6265,19 @@
         <v>55183</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>42477</v>
+        <v>40968</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>70670</v>
+        <v>71453</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.102907652946135</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07921254028122272</v>
+        <v>0.07639800598569524</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.131788371767878</v>
+        <v>0.1332480414750749</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>242050</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>232530</v>
+        <v>232245</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>249530</v>
+        <v>249315</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9199110814104777</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8837301981667287</v>
+        <v>0.8826494494198353</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.948338321325953</v>
+        <v>0.947524053979162</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>233</v>
@@ -6315,19 +6315,19 @@
         <v>239005</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>227093</v>
+        <v>226458</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>249979</v>
+        <v>249294</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8751084435265873</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8314927329079924</v>
+        <v>0.8291681202041202</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9152881081390796</v>
+        <v>0.9127803077026787</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>471</v>
@@ -6336,19 +6336,19 @@
         <v>481055</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>465568</v>
+        <v>464785</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>493761</v>
+        <v>495270</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8970923470538651</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8682116282321224</v>
+        <v>0.8667519585249255</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9207874597187775</v>
+        <v>0.9236019940143049</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>39201</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27180</v>
+        <v>27476</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>54769</v>
+        <v>53788</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05970701289809368</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04139844943490902</v>
+        <v>0.04184817581723302</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08341909896852885</v>
+        <v>0.0819247295752545</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>71</v>
@@ -6461,19 +6461,19 @@
         <v>82198</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>68477</v>
+        <v>65042</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>102490</v>
+        <v>102707</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1189042896089316</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09905562450451845</v>
+        <v>0.09408802907026474</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1482578198988749</v>
+        <v>0.1485722518218499</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>104</v>
@@ -6482,19 +6482,19 @@
         <v>121399</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>99153</v>
+        <v>100241</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>144517</v>
+        <v>143719</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09006844895265516</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07356407402002614</v>
+        <v>0.07437073463127938</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1072202125996777</v>
+        <v>0.1066284898867224</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>617357</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>601789</v>
+        <v>602770</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>629378</v>
+        <v>629082</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9402929871019063</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9165809010314711</v>
+        <v>0.9180752704247453</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.958601550565091</v>
+        <v>0.958151824182767</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>575</v>
@@ -6532,19 +6532,19 @@
         <v>609096</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>588804</v>
+        <v>588587</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>622817</v>
+        <v>626252</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8810957103910684</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8517421801011252</v>
+        <v>0.8514277481781501</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9009443754954818</v>
+        <v>0.9059119709297353</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1122</v>
@@ -6553,19 +6553,19 @@
         <v>1226453</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1203335</v>
+        <v>1204133</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1248699</v>
+        <v>1247611</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9099315510473448</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8927797874003224</v>
+        <v>0.8933715101132776</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.926435925979974</v>
+        <v>0.9256292653687213</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>32367</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22775</v>
+        <v>21783</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>45870</v>
+        <v>44549</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04157110447330487</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.029251518930512</v>
+        <v>0.02797738150398553</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05891457870347012</v>
+        <v>0.05721850251606533</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>48</v>
@@ -6678,19 +6678,19 @@
         <v>56751</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>42737</v>
+        <v>42791</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>71674</v>
+        <v>74376</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06869209235952327</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05172884548883192</v>
+        <v>0.05179476408169237</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0867551544659501</v>
+        <v>0.09002579505087761</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>81</v>
@@ -6699,19 +6699,19 @@
         <v>89118</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>72213</v>
+        <v>71731</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>109862</v>
+        <v>109435</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05553369382989885</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04499926980975652</v>
+        <v>0.04469900669616193</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06846041484670053</v>
+        <v>0.06819446651193167</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>746216</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>732713</v>
+        <v>734034</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>755808</v>
+        <v>756800</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9584288955266951</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9410854212965299</v>
+        <v>0.9427814974839354</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9707484810694884</v>
+        <v>0.9720226184960146</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>707</v>
@@ -6749,19 +6749,19 @@
         <v>769416</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>754493</v>
+        <v>751791</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>783430</v>
+        <v>783376</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9313079076404768</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9132448455340498</v>
+        <v>0.9099742049491216</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9482711545111681</v>
+        <v>0.9482052359183074</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1424</v>
@@ -6770,19 +6770,19 @@
         <v>1515632</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1494888</v>
+        <v>1495315</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1532537</v>
+        <v>1533019</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9444663061701012</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9315395851532995</v>
+        <v>0.9318055334880689</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9550007301902436</v>
+        <v>0.9553009933038383</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>181408</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>157509</v>
+        <v>154901</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>211356</v>
+        <v>208586</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0534440537564743</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04640328862307517</v>
+        <v>0.04563499933950266</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06226696394403217</v>
+        <v>0.06145104242093648</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>339</v>
@@ -6895,19 +6895,19 @@
         <v>378113</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>345047</v>
+        <v>339460</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>421667</v>
+        <v>421362</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.106674636335404</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09734593562487395</v>
+        <v>0.09576970858402277</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1189623545781974</v>
+        <v>0.118876249167771</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>512</v>
@@ -6916,19 +6916,19 @@
         <v>559521</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>512792</v>
+        <v>516538</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>609748</v>
+        <v>606123</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08063543046025795</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07390109124363026</v>
+        <v>0.07444105189315071</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08787393885071544</v>
+        <v>0.0873515454091955</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3212942</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3182994</v>
+        <v>3185764</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3236841</v>
+        <v>3239449</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9465559462435257</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.937733036055968</v>
+        <v>0.9385489575790636</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9535967113769248</v>
+        <v>0.9543650006604973</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2999</v>
@@ -6966,19 +6966,19 @@
         <v>3166429</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3122875</v>
+        <v>3123180</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3199495</v>
+        <v>3205082</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.893325363664596</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8810376454218026</v>
+        <v>0.881123750832229</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9026540643751262</v>
+        <v>0.9042302914159772</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6057</v>
@@ -6987,19 +6987,19 @@
         <v>6379371</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6329144</v>
+        <v>6332769</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6426100</v>
+        <v>6422354</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9193645695397421</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9121260611492846</v>
+        <v>0.9126484545908045</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9260989087563697</v>
+        <v>0.9255589481068494</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>5508</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2127</v>
+        <v>2137</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12096</v>
+        <v>11574</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01727340366662264</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006669808041013103</v>
+        <v>0.00670207501325926</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03793820752049321</v>
+        <v>0.03629844877296291</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -7356,19 +7356,19 @@
         <v>9040</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5478</v>
+        <v>5512</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15021</v>
+        <v>14500</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02860213359957449</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01733081839715718</v>
+        <v>0.01744012749095113</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04752655972888001</v>
+        <v>0.0458766721946262</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -7377,19 +7377,19 @@
         <v>14548</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9511</v>
+        <v>9239</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22863</v>
+        <v>21829</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02291292525708171</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0149805994757191</v>
+        <v>0.01455097816540113</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03601004351012026</v>
+        <v>0.03438162836619994</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>313337</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>306749</v>
+        <v>307271</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>316718</v>
+        <v>316708</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9827265963333772</v>
+        <v>0.9827265963333774</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9620617924795071</v>
+        <v>0.9637015512270376</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.993330191958987</v>
+        <v>0.9932979249867409</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>521</v>
@@ -7427,19 +7427,19 @@
         <v>307021</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>301040</v>
+        <v>301561</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>310583</v>
+        <v>310549</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9713978664004255</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.95247344027112</v>
+        <v>0.9541233278053738</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9826691816028427</v>
+        <v>0.982559872509049</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>846</v>
@@ -7448,19 +7448,19 @@
         <v>620358</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>612043</v>
+        <v>613077</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>625395</v>
+        <v>625667</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9770870747429183</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9639899564898793</v>
+        <v>0.9656183716338002</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9850194005242808</v>
+        <v>0.9854490218345989</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>37055</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25618</v>
+        <v>25885</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52719</v>
+        <v>51599</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06982987546036805</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04827607730802155</v>
+        <v>0.0487804060538866</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09934922194067493</v>
+        <v>0.09723764479882487</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>81</v>
@@ -7573,19 +7573,19 @@
         <v>57369</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46650</v>
+        <v>45704</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71484</v>
+        <v>69324</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1051194845785917</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08547819484461211</v>
+        <v>0.08374493265888752</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1309819170177249</v>
+        <v>0.1270239756854498</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>113</v>
@@ -7594,19 +7594,19 @@
         <v>94424</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>77211</v>
+        <v>77270</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>112027</v>
+        <v>113945</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08772231923549828</v>
+        <v>0.08772231923549832</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07173036990056568</v>
+        <v>0.07178558967293958</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1040756643911312</v>
+        <v>0.1058574466022383</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>493592</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>477928</v>
+        <v>479048</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>505029</v>
+        <v>504762</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9301701245396319</v>
+        <v>0.930170124539632</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9006507780593248</v>
+        <v>0.9027623552011751</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9517239226919784</v>
+        <v>0.9512195939461133</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>635</v>
@@ -7644,19 +7644,19 @@
         <v>488385</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>474270</v>
+        <v>476430</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>499104</v>
+        <v>500050</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8948805154214082</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8690180829822749</v>
+        <v>0.8729760243145502</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9145218051553879</v>
+        <v>0.9162550673411125</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>985</v>
@@ -7665,19 +7665,19 @@
         <v>981977</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>964374</v>
+        <v>962456</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>999190</v>
+        <v>999131</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9122776807645016</v>
+        <v>0.9122776807645018</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8959243356088689</v>
+        <v>0.8941425533977616</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9282696300994344</v>
+        <v>0.9282144103270604</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>18826</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12475</v>
+        <v>12354</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27684</v>
+        <v>27641</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05957778112752797</v>
+        <v>0.05957778112752798</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03948020564564825</v>
+        <v>0.03909574455448002</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08760922033529836</v>
+        <v>0.08747281671967783</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -7790,19 +7790,19 @@
         <v>23609</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16930</v>
+        <v>17454</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30831</v>
+        <v>31694</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0663500657133968</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04758128651636964</v>
+        <v>0.04905205802931228</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08664815624251516</v>
+        <v>0.08907420445288915</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>65</v>
@@ -7811,19 +7811,19 @@
         <v>42435</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33274</v>
+        <v>33116</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>53796</v>
+        <v>54435</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06316466109476698</v>
+        <v>0.063164661094767</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0495279489524833</v>
+        <v>0.04929298013143454</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08007600404888501</v>
+        <v>0.08102659864763043</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>297167</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>288309</v>
+        <v>288352</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>303518</v>
+        <v>303639</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9404222188724719</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9123907796647013</v>
+        <v>0.9125271832803221</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9605197943543516</v>
+        <v>0.9609042554455201</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>493</v>
@@ -7861,19 +7861,19 @@
         <v>332211</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>324989</v>
+        <v>324126</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>338890</v>
+        <v>338366</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9336499342866031</v>
+        <v>0.9336499342866034</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9133518437574847</v>
+        <v>0.910925795547111</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9524187134836302</v>
+        <v>0.9509479419706877</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>830</v>
@@ -7882,19 +7882,19 @@
         <v>629378</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>618017</v>
+        <v>617378</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>638539</v>
+        <v>638697</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9368353389052331</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9199239959511152</v>
+        <v>0.9189734013523697</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9504720510475168</v>
+        <v>0.9507070198685655</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>20979</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13194</v>
+        <v>13521</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34067</v>
+        <v>34028</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05640352665432077</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03547183443952182</v>
+        <v>0.03635367086529388</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09159097571235247</v>
+        <v>0.09148846464381519</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -8007,19 +8007,19 @@
         <v>47996</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36892</v>
+        <v>37022</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63524</v>
+        <v>63750</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1137452026966166</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08743001514586274</v>
+        <v>0.08773835406028344</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1505447851390491</v>
+        <v>0.1510812592124068</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>87</v>
@@ -8028,19 +8028,19 @@
         <v>68975</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>53964</v>
+        <v>53785</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>89961</v>
+        <v>87102</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08688069902360439</v>
+        <v>0.08688069902360436</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0679725077862437</v>
+        <v>0.06774756060715559</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1133139430862969</v>
+        <v>0.109713492345374</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>350964</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>337876</v>
+        <v>337915</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>358749</v>
+        <v>358422</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9435964733456793</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9084090242876472</v>
+        <v>0.9085115353561853</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9645281655604782</v>
+        <v>0.9636463291347062</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>533</v>
@@ -8078,19 +8078,19 @@
         <v>373965</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>358437</v>
+        <v>358211</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>385069</v>
+        <v>384939</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8862547973033833</v>
+        <v>0.8862547973033835</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.849455214860951</v>
+        <v>0.8489187407875933</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9125699848541373</v>
+        <v>0.9122616459397166</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>802</v>
@@ -8099,19 +8099,19 @@
         <v>724930</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>703944</v>
+        <v>706803</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>739941</v>
+        <v>740120</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9131193009763958</v>
+        <v>0.9131193009763956</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8866860569137028</v>
+        <v>0.8902865076546266</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9320274922137562</v>
+        <v>0.9322524393928452</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>5736</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2944</v>
+        <v>2816</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10653</v>
+        <v>10457</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02788762821147108</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01431678377312093</v>
+        <v>0.01369199868370757</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05179732686378379</v>
+        <v>0.05084506334981771</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -8224,19 +8224,19 @@
         <v>18566</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14173</v>
+        <v>14147</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24547</v>
+        <v>24049</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.08193004354255269</v>
+        <v>0.08193004354255268</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06254042238063487</v>
+        <v>0.06242704231629565</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1083187756088804</v>
+        <v>0.1061218476113527</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>56</v>
@@ -8245,19 +8245,19 @@
         <v>24302</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18638</v>
+        <v>18910</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30802</v>
+        <v>30862</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.05621831872195471</v>
+        <v>0.05621831872195472</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0431161214720224</v>
+        <v>0.04374482159755222</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07125487297001619</v>
+        <v>0.07139327963227994</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>199929</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>195012</v>
+        <v>195208</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>202721</v>
+        <v>202849</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9721123717885288</v>
+        <v>0.9721123717885289</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9482026731362163</v>
+        <v>0.9491549366501839</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.985683216226879</v>
+        <v>0.9863080013162926</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>444</v>
@@ -8295,19 +8295,19 @@
         <v>208048</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>202067</v>
+        <v>202565</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>212441</v>
+        <v>212467</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9180699564574474</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8916812243911195</v>
+        <v>0.8938781523886473</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9374595776193652</v>
+        <v>0.9375729576837043</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>713</v>
@@ -8316,19 +8316,19 @@
         <v>407976</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>401476</v>
+        <v>401416</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>413640</v>
+        <v>413368</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9437816812780453</v>
+        <v>0.9437816812780452</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9287451270299835</v>
+        <v>0.9286067203677202</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9568838785279775</v>
+        <v>0.956255178402448</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>13990</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9134</v>
+        <v>8654</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21214</v>
+        <v>21112</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05167813217625809</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03374008544815443</v>
+        <v>0.03196881843800448</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07836655171666525</v>
+        <v>0.07798864507584741</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>41</v>
@@ -8441,19 +8441,19 @@
         <v>18453</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13171</v>
+        <v>13598</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25033</v>
+        <v>25034</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.06996557306176068</v>
+        <v>0.06996557306176064</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04993662231689085</v>
+        <v>0.05155614608292253</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09490995419205642</v>
+        <v>0.09491634242666187</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>65</v>
@@ -8462,19 +8462,19 @@
         <v>32443</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>25162</v>
+        <v>25155</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>41370</v>
+        <v>41236</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06070283467721048</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04707984512669493</v>
+        <v>0.04706623232159825</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07740493791958529</v>
+        <v>0.07715436672592646</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>256717</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>249493</v>
+        <v>249595</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>261573</v>
+        <v>262053</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9483218678237421</v>
+        <v>0.9483218678237418</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9216334482833345</v>
+        <v>0.9220113549241522</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9662599145518455</v>
+        <v>0.9680311815619954</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>419</v>
@@ -8512,19 +8512,19 @@
         <v>245297</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>238717</v>
+        <v>238716</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>250579</v>
+        <v>250152</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9300344269382395</v>
+        <v>0.9300344269382391</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9050900458079436</v>
+        <v>0.9050836575733381</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9500633776831091</v>
+        <v>0.9484438539170774</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>766</v>
@@ -8533,19 +8533,19 @@
         <v>502014</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>493087</v>
+        <v>493221</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>509295</v>
+        <v>509302</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9392971653227895</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9225950620804144</v>
+        <v>0.9228456332740733</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9529201548733051</v>
+        <v>0.9529337676784019</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>55382</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>40691</v>
+        <v>40424</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>76021</v>
+        <v>73084</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07695253273880773</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05653958298670803</v>
+        <v>0.05616922364575994</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1056309241661312</v>
+        <v>0.1015497443307732</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>133</v>
@@ -8658,19 +8658,19 @@
         <v>103814</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>87308</v>
+        <v>88130</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>123647</v>
+        <v>124172</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1344642026877646</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1130855093948634</v>
+        <v>0.1141496560216309</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1601522908586605</v>
+        <v>0.1608321548542999</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>180</v>
@@ -8679,19 +8679,19 @@
         <v>159196</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>136050</v>
+        <v>136971</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>184099</v>
+        <v>184923</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1067178809604489</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09120203747811033</v>
+        <v>0.09181963244683794</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1234120372026175</v>
+        <v>0.1239646119411792</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>664305</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>643666</v>
+        <v>646603</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>678996</v>
+        <v>679263</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9230474672611925</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8943690758338687</v>
+        <v>0.8984502556692266</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9434604170132921</v>
+        <v>0.9438307763542401</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>827</v>
@@ -8729,19 +8729,19 @@
         <v>668243</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>648410</v>
+        <v>647885</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>684749</v>
+        <v>683927</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8655357973122353</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8398477091413394</v>
+        <v>0.8391678451457002</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8869144906051366</v>
+        <v>0.885850343978369</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1379</v>
@@ -8750,19 +8750,19 @@
         <v>1332548</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1307645</v>
+        <v>1306821</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1355694</v>
+        <v>1354773</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8932821190395511</v>
+        <v>0.8932821190395512</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8765879627973827</v>
+        <v>0.8760353880588205</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9087979625218897</v>
+        <v>0.9081803675531621</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>45498</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>35544</v>
+        <v>35015</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>59062</v>
+        <v>59582</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05700966118502698</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0445378561477376</v>
+        <v>0.04387499924059646</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07400542180000748</v>
+        <v>0.07465681105119212</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>180</v>
@@ -8875,19 +8875,19 @@
         <v>123954</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>105506</v>
+        <v>107696</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>139709</v>
+        <v>141780</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.149103616293865</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1269115989272283</v>
+        <v>0.1295459664652732</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1680548197741042</v>
+        <v>0.1705457127964641</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>233</v>
@@ -8896,19 +8896,19 @@
         <v>169452</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>148960</v>
+        <v>147831</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>193062</v>
+        <v>191671</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1039965545191463</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09142019225141325</v>
+        <v>0.09072685462552275</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1184863936349355</v>
+        <v>0.1176324592893915</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>752574</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>739010</v>
+        <v>738490</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>762528</v>
+        <v>763057</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9429903388149729</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9259945781999922</v>
+        <v>0.9253431889488077</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9554621438522624</v>
+        <v>0.9561250007594034</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>882</v>
@@ -8946,19 +8946,19 @@
         <v>707377</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>691622</v>
+        <v>689551</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>725825</v>
+        <v>723635</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.850896383706135</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8319451802258957</v>
+        <v>0.8294542872035359</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8730884010727717</v>
+        <v>0.8704540335347268</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1591</v>
@@ -8967,19 +8967,19 @@
         <v>1459951</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1436341</v>
+        <v>1437732</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1480443</v>
+        <v>1481572</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8960034454808536</v>
+        <v>0.8960034454808538</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8815136063650646</v>
+        <v>0.8823675407106082</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9085798077485867</v>
+        <v>0.9092731453744772</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>202972</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>176096</v>
+        <v>176449</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>233101</v>
+        <v>233464</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0574738507724156</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04986364540248824</v>
+        <v>0.04996355194613659</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06600516980414559</v>
+        <v>0.066107937619137</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>606</v>
@@ -9092,19 +9092,19 @@
         <v>402803</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>369683</v>
+        <v>367984</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>438360</v>
+        <v>438052</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1078931166245219</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09902182280590767</v>
+        <v>0.09856670474054721</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1174174911417711</v>
+        <v>0.1173348062631085</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>822</v>
@@ -9113,19 +9113,19 @@
         <v>605775</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>563851</v>
+        <v>564411</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>651438</v>
+        <v>651615</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.08338369976374024</v>
+        <v>0.08338369976374026</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07761295882796553</v>
+        <v>0.07769003416436204</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08966912292211414</v>
+        <v>0.08969348534244773</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3328588</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3298459</v>
+        <v>3298096</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3355464</v>
+        <v>3355111</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9425261492275845</v>
+        <v>0.9425261492275846</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9339948301958544</v>
+        <v>0.9338920623808629</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9501363545975118</v>
+        <v>0.9500364480538633</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4754</v>
@@ -9163,19 +9163,19 @@
         <v>3330545</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3294988</v>
+        <v>3295296</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3363665</v>
+        <v>3365364</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8921068833754782</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8825825088582291</v>
+        <v>0.8826651937368915</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9009781771940923</v>
+        <v>0.9014332952594525</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7912</v>
@@ -9184,19 +9184,19 @@
         <v>6659134</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6613471</v>
+        <v>6613294</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6701058</v>
+        <v>6700498</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9166163002362596</v>
+        <v>0.9166163002362595</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9103308770778858</v>
+        <v>0.9103065146575522</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9223870411720344</v>
+        <v>0.9223099658356378</v>
       </c>
     </row>
     <row r="30">
